--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randy\Desktop\app-designer\app\config\assets\framework\forms\framework.clean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A885FDCF-3059-4BC1-BC3F-76E46D26B101}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34FAE6C-EBFC-47F7-8001-7F4CDA9CFA4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="choices" sheetId="6" r:id="rId4"/>
     <sheet name="framework_translations" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -517,15 +517,6 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>form_id_here</t>
-  </si>
-  <si>
-    <t>form_title_here</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('form_id_here')</t>
-  </si>
-  <si>
     <t>display.title.text.en</t>
   </si>
   <si>
@@ -551,6 +542,15 @@
   </si>
   <si>
     <t>अंग्रेज़ी</t>
+  </si>
+  <si>
+    <t>sarampo</t>
+  </si>
+  <si>
+    <t>Sarampo</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('sarampo')</t>
   </si>
 </sst>
 </file>
@@ -1118,13 +1118,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1151,22 +1151,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="101.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="46.109375" customWidth="1"/>
+    <col min="2" max="2" width="101.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" customWidth="1"/>
-    <col min="9" max="9" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -1213,13 +1213,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -1230,26 +1230,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -1258,7 +1258,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -1280,17 +1280,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="41.109375" customWidth="1"/>
+    <col min="3" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1298,16 +1298,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1371,29 +1371,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
         <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>155</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1413,13 +1413,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1427,7 +1427,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1435,13 +1435,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1449,7 +1449,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1457,10 +1457,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -1478,17 +1478,17 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1499,15 +1499,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1529,14 +1529,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.77734375" customWidth="1"/>
-    <col min="2" max="2" width="73.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1544,10 +1544,10 @@
         <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>69</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>76</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>78</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>82</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="171.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>115</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>118</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>120</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>135</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>137</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>144</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>145</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>154</v>
       </c>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34FAE6C-EBFC-47F7-8001-7F4CDA9CFA4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143AAA2F-6CBA-4AD2-BF0B-552E30FE715A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="choices" sheetId="6" r:id="rId4"/>
     <sheet name="framework_translations" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="248">
   <si>
     <t>comments</t>
   </si>
@@ -508,12 +508,6 @@
     <t>invalid_integer_message</t>
   </si>
   <si>
-    <t>framework_variant</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>display.title.text</t>
   </si>
   <si>
@@ -551,6 +545,260 @@
   </si>
   <si>
     <t>'?' + odkSurvey.getHashString('sarampo')</t>
+  </si>
+  <si>
+    <t>inscricao</t>
+  </si>
+  <si>
+    <t>Inscrição</t>
+  </si>
+  <si>
+    <t>ronda_1</t>
+  </si>
+  <si>
+    <t>ronda_2</t>
+  </si>
+  <si>
+    <t>ronda_3</t>
+  </si>
+  <si>
+    <t>ronda_4</t>
+  </si>
+  <si>
+    <t>1ª Ronda</t>
+  </si>
+  <si>
+    <t>2ª Ronda</t>
+  </si>
+  <si>
+    <t>3ª Ronda</t>
+  </si>
+  <si>
+    <t>4ª Ronda</t>
+  </si>
+  <si>
+    <t>text.es</t>
+  </si>
+  <si>
+    <t>Restricción incumplida</t>
+  </si>
+  <si>
+    <t>Valor no válido.</t>
+  </si>
+  <si>
+    <t>Dato requerido no proporcionado</t>
+  </si>
+  <si>
+    <t>Excepción al evaluar la expresión requerido(). Ver consola de registro</t>
+  </si>
+  <si>
+    <t>Excepción al evaluar la expresión restricción(). Ver consola de registro</t>
+  </si>
+  <si>
+    <t>Admitir</t>
+  </si>
+  <si>
+    <t>Atrás</t>
+  </si>
+  <si>
+    <t>Siguiente</t>
+  </si>
+  <si>
+    <t>Continuar</t>
+  </si>
+  <si>
+    <t>Elige una opción</t>
+  </si>
+  <si>
+    <t>Grabar ubicación</t>
+  </si>
+  <si>
+    <t>Latitud: {{value.latitude}}</t>
+  </si>
+  <si>
+    <t>Longitud: {{value.longitude}}</t>
+  </si>
+  <si>
+    <t>Altitud: {{value.altitude}}</t>
+  </si>
+  <si>
+    <t>Precisión: {{value.accuracy}}</t>
+  </si>
+  <si>
+    <t>Por favor, espere…</t>
+  </si>
+  <si>
+    <t>Graba un vídeo</t>
+  </si>
+  <si>
+    <t>Elige un vídeo</t>
+  </si>
+  <si>
+    <t>Controles de vídeo no son compatibles.</t>
+  </si>
+  <si>
+    <t>Captura audio</t>
+  </si>
+  <si>
+    <t>Elige audio</t>
+  </si>
+  <si>
+    <t>Controles de audio no son compatibles.</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Sigue el enlace</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;center&gt;ODK Survey&lt;/center&gt;&lt;hr&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;Nombre del Formulario: {{localizeText form_title}}&lt;/p&gt;{{#if form_version}}&lt;p&gt;Version de Formulario: {{form_version}}&lt;/p&gt;{{/if}}&lt;hr&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Está en el final de la instancia: &lt;/p&gt;&lt;p&gt;"{{display_field}}"&lt;/p&gt;&lt;hr&gt;</t>
+  </si>
+  <si>
+    <t>Finalizar</t>
+  </si>
+  <si>
+    <t>Incompleto</t>
+  </si>
+  <si>
+    <t>Tomé una foto</t>
+  </si>
+  <si>
+    <t>Elige una imagen</t>
+  </si>
+  <si>
+    <t>Lanzamiento de intención</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     
+  {{#if display_field}}
+        &lt;p&gt;estás en el inicio de la instancia: &lt;/p&gt;
+        &lt;p&gt;"{{display_field}}"&lt;/p&gt; 
+  {{else}}
+        &lt;p&gt;estás en el inicio de una nueva instancia.&lt;/p&gt;
+  {{/if}}
+        &lt;hr&gt;
+        {{#if last_save_date}}
+            &lt;p&gt;guardado por última vez:&lt;/p&gt; 
+            &lt;p&gt;{{last_save_date}}&lt;/p&gt;
+        {{/if}}
+        &lt;hr&gt;
+</t>
+  </si>
+  <si>
+    <t>Ir al siguiente</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>Contenido</t>
+  </si>
+  <si>
+    <t>Ignorar cambios y salir</t>
+  </si>
+  <si>
+    <t>Guardar cambios y salir</t>
+  </si>
+  <si>
+    <t>Finalizar cambios y salir</t>
+  </si>
+  <si>
+    <t>Confirmar</t>
+  </si>
+  <si>
+    <t>Otro:</t>
+  </si>
+  <si>
+    <t>Deseleccioanr</t>
+  </si>
+  <si>
+    <t>Obtener firma</t>
+  </si>
+  <si>
+    <t>Crear nueva instancia</t>
+  </si>
+  <si>
+    <t>Instancias no guardadas</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Última fecha guardada:&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Instancias creadas previamente:&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Cambios no guardados</t>
+  </si>
+  <si>
+    <t>Escanear Código de Barras</t>
+  </si>
+  <si>
+    <t>Valor numérico esperado</t>
+  </si>
+  <si>
+    <t>Valor entero esperado</t>
+  </si>
+  <si>
+    <t>confirm_exit_label</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Salir</t>
+  </si>
+  <si>
+    <t>confirm_cancel_label</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Cancelar</t>
+  </si>
+  <si>
+    <t>confirm_message</t>
+  </si>
+  <si>
+    <t>Are you sure you want to exit and lose all changes?</t>
+  </si>
+  <si>
+    <t>¿Estás seguro de que quieres salir y perder todos los cambios?</t>
+  </si>
+  <si>
+    <t>display.title.text.es</t>
+  </si>
+  <si>
+    <t>display.locale.text.es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Marco común de Javascript</t>
+  </si>
+  <si>
+    <t>Inglés</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">स्पेनिश </t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>QPS</t>
   </si>
 </sst>
 </file>
@@ -558,11 +806,6 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -582,6 +825,12 @@
     </font>
     <font>
       <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -607,103 +856,100 @@
   </borders>
   <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -712,10 +958,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1149,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1191,7 +1443,7 @@
       <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
@@ -1200,13 +1452,13 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
@@ -1217,7 +1469,7 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
@@ -1241,15 +1493,15 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>169</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -1259,11 +1511,20 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="C10" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1278,190 +1539,221 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="3" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>158</v>
+      <c r="C1" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="F1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E5" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="b">
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
+      <c r="G8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1475,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1489,25 +1781,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>157</v>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1523,20 +1881,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1544,50 +1903,68 @@
         <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1597,19 +1974,25 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>90</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -1619,8 +2002,11 @@
       <c r="C9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -1630,272 +2016,374 @@
       <c r="C10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>129</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>71</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>76</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>78</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>80</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>82</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>84</v>
       </c>
       <c r="B24" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>86</v>
       </c>
       <c r="B25" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>95</v>
       </c>
       <c r="B27" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>109</v>
       </c>
       <c r="B28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D28" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>98</v>
       </c>
       <c r="B29" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D29" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>99</v>
       </c>
       <c r="B30" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>101</v>
       </c>
       <c r="B31" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>103</v>
       </c>
       <c r="B33" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>104</v>
       </c>
       <c r="B34" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>107</v>
       </c>
       <c r="B35" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>110</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>112</v>
       </c>
       <c r="B37" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>116</v>
       </c>
       <c r="B38" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>115</v>
       </c>
       <c r="B39" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>118</v>
       </c>
       <c r="B40" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>120</v>
       </c>
       <c r="B41" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>122</v>
       </c>
       <c r="B42" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>124</v>
       </c>
       <c r="B43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>126</v>
       </c>
       <c r="B44" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>128</v>
       </c>
@@ -1905,101 +2393,173 @@
       <c r="C45" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>130</v>
       </c>
       <c r="B46" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>131</v>
       </c>
       <c r="B47" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>133</v>
       </c>
       <c r="B48" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>135</v>
       </c>
       <c r="B49" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D49" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>137</v>
       </c>
       <c r="B50" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D50" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>141</v>
       </c>
       <c r="B51" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>142</v>
       </c>
       <c r="B52" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>143</v>
       </c>
       <c r="B53" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>144</v>
       </c>
       <c r="B54" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>145</v>
       </c>
       <c r="B55" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>151</v>
       </c>
       <c r="B56" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>154</v>
       </c>
       <c r="B57" t="s">
         <v>153</v>
+      </c>
+      <c r="D57" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D59" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\app-designer\app\config\assets\framework\forms\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F408483-C1E8-46AF-8AA5-F856B51B80D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C443E843-77AF-4D13-B59F-5E0319165FD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="232">
   <si>
     <t>comments</t>
   </si>
@@ -508,49 +508,7 @@
     <t>'?' + odkSurvey.getHashString('QPS')</t>
   </si>
   <si>
-    <t>ronda_1</t>
-  </si>
-  <si>
-    <t>ronda_2</t>
-  </si>
-  <si>
-    <t>ronda_3</t>
-  </si>
-  <si>
-    <t>ronda_4</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('QPS','ronda_1')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('QPS','ronda_2')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('QPS','ronda_3')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('QPS','ronda_4')</t>
-  </si>
-  <si>
-    <t>2ª Ronda</t>
-  </si>
-  <si>
-    <t>1ª Ronda</t>
-  </si>
-  <si>
-    <t>3ª Ronda</t>
-  </si>
-  <si>
-    <t>4ª Ronda</t>
-  </si>
-  <si>
     <t>inscricao</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('inscricao')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incricao </t>
   </si>
   <si>
     <t>Quimioprevenção do Paludismo Sazonal</t>
@@ -776,6 +734,21 @@
   </si>
   <si>
     <t>Você tem certeza que quere sair e perder todas as alterações?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inscricao </t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('QPS','inscricao')</t>
+  </si>
+  <si>
+    <t>ronda</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('ronda')</t>
+  </si>
+  <si>
+    <t>Rondas</t>
   </si>
 </sst>
 </file>
@@ -1389,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1450,7 +1423,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1507,14 +1480,14 @@
     </row>
     <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -1531,15 +1504,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>155</v>
+      <c r="A16" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>159</v>
+      <c r="B17" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1555,103 +1528,31 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E21" t="s">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
         <v>28</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
-      <c r="B33" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" t="s">
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1691,13 +1592,13 @@
         <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E1" t="s">
         <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1752,7 +1653,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1769,18 +1670,18 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1865,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1894,10 +1795,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1908,18 +1809,18 @@
         <v>153</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" t="s">
-        <v>164</v>
+      <c r="B4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1927,43 +1828,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
         <v>157</v>
       </c>
-      <c r="C6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>173</v>
+      <c r="C5" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2001,7 +1869,7 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2012,7 +1880,7 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2023,7 +1891,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2034,7 +1902,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2045,7 +1913,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2056,7 +1924,7 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2067,7 +1935,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2078,7 +1946,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -2089,7 +1957,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -2100,7 +1968,7 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -2111,7 +1979,7 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -2122,7 +1990,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2133,7 +2001,7 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2177,7 +2045,7 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2188,7 +2056,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -2199,7 +2067,7 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -2210,7 +2078,7 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -2221,7 +2089,7 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2232,7 +2100,7 @@
         <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2243,7 +2111,7 @@
         <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -2254,7 +2122,7 @@
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -2265,7 +2133,7 @@
         <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2276,7 +2144,7 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2287,7 +2155,7 @@
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2298,7 +2166,7 @@
         <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -2309,7 +2177,7 @@
         <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2320,7 +2188,7 @@
         <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2331,7 +2199,7 @@
         <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -2342,7 +2210,7 @@
         <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -2353,7 +2221,7 @@
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -2364,7 +2232,7 @@
         <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.35">
@@ -2375,7 +2243,7 @@
         <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -2386,7 +2254,7 @@
         <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -2397,7 +2265,7 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -2408,7 +2276,7 @@
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -2419,7 +2287,7 @@
         <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -2430,7 +2298,7 @@
         <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -2441,7 +2309,7 @@
         <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -2452,7 +2320,7 @@
         <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -2463,7 +2331,7 @@
         <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -2474,7 +2342,7 @@
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -2485,7 +2353,7 @@
         <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -2496,7 +2364,7 @@
         <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -2507,7 +2375,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -2518,7 +2386,7 @@
         <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2529,7 +2397,7 @@
         <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -2540,7 +2408,7 @@
         <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -2551,7 +2419,7 @@
         <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -2562,7 +2430,7 @@
         <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -2573,7 +2441,7 @@
         <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -2584,7 +2452,7 @@
         <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -2595,7 +2463,7 @@
         <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -2606,40 +2474,40 @@
         <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C58" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C59" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C60" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C443E843-77AF-4D13-B59F-5E0319165FD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B0319D-2A2C-47F0-9030-B9A046F9CE1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40942" yWindow="-1628" windowWidth="38596" windowHeight="21196" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="231">
   <si>
     <t>comments</t>
   </si>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>Avaliacao_qps</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('Avaliacao_qps')</t>
   </si>
   <si>
     <t>Questionário para avaliação da Quimioprofilaxis Sazonal para Prevenção do Paludismo</t>
@@ -1364,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1423,7 +1420,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1487,7 +1484,7 @@
     <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -1505,14 +1502,14 @@
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1532,29 +1529,16 @@
       <c r="A20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>157</v>
-      </c>
+      <c r="A21" s="7"/>
       <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1571,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1592,13 +1576,13 @@
         <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
         <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1639,7 +1623,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>20130828</v>
+        <v>2019080800</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1653,7 +1637,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1670,18 +1654,18 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1798,7 +1782,7 @@
         <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1817,10 +1801,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1831,7 +1815,7 @@
         <v>157</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1853,7 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1880,7 +1864,7 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1891,7 +1875,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1902,7 +1886,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1913,7 +1897,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1924,7 +1908,7 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1935,7 +1919,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1946,7 +1930,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1957,7 +1941,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1968,7 +1952,7 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1979,7 +1963,7 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1990,7 +1974,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2001,7 +1985,7 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2045,7 +2029,7 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2056,7 +2040,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -2067,7 +2051,7 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -2078,7 +2062,7 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -2089,7 +2073,7 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2100,7 +2084,7 @@
         <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2111,7 +2095,7 @@
         <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -2122,7 +2106,7 @@
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -2133,7 +2117,7 @@
         <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2144,7 +2128,7 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2155,7 +2139,7 @@
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2166,7 +2150,7 @@
         <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -2177,7 +2161,7 @@
         <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2188,7 +2172,7 @@
         <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2199,7 +2183,7 @@
         <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -2210,7 +2194,7 @@
         <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -2221,7 +2205,7 @@
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -2232,7 +2216,7 @@
         <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.35">
@@ -2243,7 +2227,7 @@
         <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -2254,7 +2238,7 @@
         <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -2265,7 +2249,7 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -2276,7 +2260,7 @@
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -2287,7 +2271,7 @@
         <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -2298,7 +2282,7 @@
         <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -2309,7 +2293,7 @@
         <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -2320,7 +2304,7 @@
         <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -2331,7 +2315,7 @@
         <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -2342,7 +2326,7 @@
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -2353,7 +2337,7 @@
         <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -2364,7 +2348,7 @@
         <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -2375,7 +2359,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -2386,7 +2370,7 @@
         <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2397,7 +2381,7 @@
         <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -2408,7 +2392,7 @@
         <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -2419,7 +2403,7 @@
         <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -2430,7 +2414,7 @@
         <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -2441,7 +2425,7 @@
         <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -2452,7 +2436,7 @@
         <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -2463,7 +2447,7 @@
         <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -2474,40 +2458,40 @@
         <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>219</v>
-      </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="C59" t="s">
         <v>221</v>
-      </c>
-      <c r="C59" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>224</v>
-      </c>
       <c r="C60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B0319D-2A2C-47F0-9030-B9A046F9CE1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEC9035-2B46-4DE0-85F5-972CFFDD186E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40942" yWindow="-1628" windowWidth="38596" windowHeight="21196" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="229">
   <si>
     <t>comments</t>
   </si>
@@ -512,12 +512,6 @@
   </si>
   <si>
     <t>Quimioprevenção do Paludismo Sazonal</t>
-  </si>
-  <si>
-    <t>Avaliacao_qps</t>
-  </si>
-  <si>
-    <t>Questionário para avaliação da Quimioprofilaxis Sazonal para Prevenção do Paludismo</t>
   </si>
   <si>
     <t>Escolha o formulário</t>
@@ -1324,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1361,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1420,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -1484,7 +1478,7 @@
     <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -1502,14 +1496,14 @@
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1576,13 +1570,13 @@
         <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
         <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1623,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2019080800</v>
+        <v>2019082600</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1637,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1654,18 +1648,18 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -1753,7 +1747,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1782,7 +1776,7 @@
         <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1801,22 +1795,15 @@
         <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1853,7 +1840,7 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1864,7 +1851,7 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1875,7 +1862,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1886,7 +1873,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1897,7 +1884,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1908,7 +1895,7 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1919,7 +1906,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1930,7 +1917,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -1941,7 +1928,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1952,7 +1939,7 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1963,7 +1950,7 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
@@ -1974,7 +1961,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1985,7 +1972,7 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2029,7 +2016,7 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2040,7 +2027,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -2051,7 +2038,7 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -2062,7 +2049,7 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -2073,7 +2060,7 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2084,7 +2071,7 @@
         <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2095,7 +2082,7 @@
         <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -2106,7 +2093,7 @@
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -2117,7 +2104,7 @@
         <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2128,7 +2115,7 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -2139,7 +2126,7 @@
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2150,7 +2137,7 @@
         <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -2161,7 +2148,7 @@
         <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2172,7 +2159,7 @@
         <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2183,7 +2170,7 @@
         <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -2194,7 +2181,7 @@
         <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -2205,7 +2192,7 @@
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -2216,7 +2203,7 @@
         <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.35">
@@ -2227,7 +2214,7 @@
         <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -2238,7 +2225,7 @@
         <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -2249,7 +2236,7 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -2260,7 +2247,7 @@
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -2271,7 +2258,7 @@
         <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -2282,7 +2269,7 @@
         <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -2293,7 +2280,7 @@
         <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -2304,7 +2291,7 @@
         <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -2315,7 +2302,7 @@
         <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -2326,7 +2313,7 @@
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -2337,7 +2324,7 @@
         <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -2348,7 +2335,7 @@
         <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -2359,7 +2346,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -2370,7 +2357,7 @@
         <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2381,7 +2368,7 @@
         <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -2392,7 +2379,7 @@
         <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -2403,7 +2390,7 @@
         <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -2414,7 +2401,7 @@
         <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -2425,7 +2412,7 @@
         <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
@@ -2436,7 +2423,7 @@
         <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
@@ -2447,7 +2434,7 @@
         <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -2458,40 +2445,40 @@
         <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C58" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" t="s">
         <v>219</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C59" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C60" t="s">
         <v>223</v>
-      </c>
-      <c r="C60" t="s">
-        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEC9035-2B46-4DE0-85F5-972CFFDD186E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E96D2C1-28A4-4F3D-BC23-0BB049EE1CB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="232">
   <si>
     <t>comments</t>
   </si>
@@ -740,6 +740,15 @@
   </si>
   <si>
     <t>Rondas</t>
+  </si>
+  <si>
+    <t>dados_adicional</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('QPS','dados_adicional')</t>
+  </si>
+  <si>
+    <t>Dados adicionais</t>
   </si>
 </sst>
 </file>
@@ -1353,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1495,15 +1504,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>226</v>
+      <c r="A16" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="8" t="s">
-        <v>227</v>
+      <c r="B17" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1519,20 +1528,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
-      <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1549,7 +1583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1746,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1802,8 +1836,15 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\assets\framework\forms\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E96D2C1-28A4-4F3D-BC23-0BB049EE1CB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18AD22B-9288-4C94-A977-39420BB8AA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -19,8 +19,14 @@
     <sheet name="choices" sheetId="6" r:id="rId4"/>
     <sheet name="framework_translations" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="271">
   <si>
     <t>comments</t>
   </si>
@@ -502,18 +508,6 @@
     <t>en</t>
   </si>
   <si>
-    <t>QPS</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('QPS')</t>
-  </si>
-  <si>
-    <t>inscricao</t>
-  </si>
-  <si>
-    <t>Quimioprevenção do Paludismo Sazonal</t>
-  </si>
-  <si>
     <t>Escolha o formulário</t>
   </si>
   <si>
@@ -727,28 +721,157 @@
     <t>Você tem certeza que quere sair e perder todas as alterações?</t>
   </si>
   <si>
-    <t xml:space="preserve">Inscricao </t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('QPS','inscricao')</t>
-  </si>
-  <si>
-    <t>ronda</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('ronda')</t>
-  </si>
-  <si>
-    <t>Rondas</t>
-  </si>
-  <si>
-    <t>dados_adicional</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('QPS','dados_adicional')</t>
-  </si>
-  <si>
-    <t>Dados adicionais</t>
+    <t>AQSP</t>
+  </si>
+  <si>
+    <t>inclusao</t>
+  </si>
+  <si>
+    <t>laboratorio</t>
+  </si>
+  <si>
+    <t>medicacao_previa</t>
+  </si>
+  <si>
+    <t>medicamento_administrado</t>
+  </si>
+  <si>
+    <t>medicamento_suspeito</t>
+  </si>
+  <si>
+    <t>rastreio</t>
+  </si>
+  <si>
+    <t>seguimento</t>
+  </si>
+  <si>
+    <t>Avaliação da eficáccia de AQSP</t>
+  </si>
+  <si>
+    <t>Formulário de inclusão de caso: Dia 0</t>
+  </si>
+  <si>
+    <t>Formulário de reportagem de evento adverso</t>
+  </si>
+  <si>
+    <t>evento_adverso</t>
+  </si>
+  <si>
+    <t>Resultados de laboratorio</t>
+  </si>
+  <si>
+    <t>Medicação prévia</t>
+  </si>
+  <si>
+    <t>Outros Medicamentos Administrados (antipalúdicos, antibióticos ou analgésicos)</t>
+  </si>
+  <si>
+    <t>Medicamento suspeito</t>
+  </si>
+  <si>
+    <t>Rastreio de caso</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('AQSP')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('AQSP','inclusao')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('laboratorio')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('evento_adverso')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('medicacao_previa')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('medicamento_administrado')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('medicamento_suspeito')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('rastreio')</t>
+  </si>
+  <si>
+    <t>dia01</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('seguimento','dia01')</t>
+  </si>
+  <si>
+    <t>dia02</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('seguimento','dia02')</t>
+  </si>
+  <si>
+    <t>Formulário de seguimento de caso: dia 01</t>
+  </si>
+  <si>
+    <t>Formulário de seguimento de caso: dia 02</t>
+  </si>
+  <si>
+    <t>Formulário de seguimento de caso: dia 03</t>
+  </si>
+  <si>
+    <t>Formulário de seguimento de caso: dia 07</t>
+  </si>
+  <si>
+    <t>Formulário de seguimento de caso: dia 14</t>
+  </si>
+  <si>
+    <t>Formulário de seguimento de caso: dia 21</t>
+  </si>
+  <si>
+    <t>Formulário de seguimento de caso: dia 28</t>
+  </si>
+  <si>
+    <t>dia03</t>
+  </si>
+  <si>
+    <t>dia07</t>
+  </si>
+  <si>
+    <t>dia14</t>
+  </si>
+  <si>
+    <t>dia21</t>
+  </si>
+  <si>
+    <t>dia28</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('seguimento','dia07')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('seguimento','dia03')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('seguimento','dia14')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('seguimento','dia28')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('seguimento','dia21')</t>
+  </si>
+  <si>
+    <t>outroDia</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('seguimento','outroDia')</t>
+  </si>
+  <si>
+    <t>Formulário de seguimento de caso: Qualquer outro dia</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('seguimento')</t>
+  </si>
+  <si>
+    <t>Seguimento</t>
   </si>
 </sst>
 </file>
@@ -1331,13 +1454,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1468,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1362,24 +1485,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="101.1328125" customWidth="1"/>
-    <col min="3" max="3" width="22.1328125" customWidth="1"/>
-    <col min="4" max="4" width="46.1328125" customWidth="1"/>
+    <col min="2" max="2" width="101.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1"/>
-    <col min="8" max="8" width="31.3984375" customWidth="1"/>
-    <col min="9" max="9" width="22.1328125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1406,7 +1529,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>17</v>
       </c>
@@ -1415,7 +1538,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -1423,16 +1546,16 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -1443,26 +1566,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
@@ -1471,23 +1594,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
@@ -1496,23 +1619,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1521,23 +1644,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="8" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1546,27 +1669,337 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="G54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E58" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1587,13 +2020,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="24.73046875" customWidth="1"/>
-    <col min="7" max="7" width="41.1328125" customWidth="1"/>
+    <col min="3" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1604,13 +2037,13 @@
         <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
         <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1619,7 +2052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1631,7 +2064,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1646,18 +2079,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2019082600</v>
+        <v>2020061901</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1665,7 +2098,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1674,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -1682,21 +2115,21 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>147</v>
       </c>
@@ -1708,7 +2141,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1716,13 +2149,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1730,7 +2163,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1738,13 +2171,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1752,7 +2185,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1760,10 +2193,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -1778,20 +2211,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="22.1328125" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1802,48 +2235,202 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
         <v>231</v>
+      </c>
+      <c r="C10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1862,18 +2449,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.73046875" customWidth="1"/>
-    <col min="2" max="2" width="73.265625" customWidth="1"/>
-    <col min="3" max="3" width="53.73046875" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1881,10 +2468,10 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1892,10 +2479,10 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1903,10 +2490,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1914,10 +2501,10 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1925,10 +2512,10 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1936,10 +2523,10 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1947,10 +2534,10 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1958,10 +2545,10 @@
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1969,10 +2556,10 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1980,10 +2567,10 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -1991,10 +2578,10 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2002,10 +2589,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2013,10 +2600,10 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2027,7 +2614,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2038,7 +2625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2049,7 +2636,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2057,10 +2644,10 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2068,10 +2655,10 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2079,10 +2666,10 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2090,10 +2677,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2101,10 +2688,10 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2112,10 +2699,10 @@
         <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -2123,10 +2710,10 @@
         <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2134,10 +2721,10 @@
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2145,10 +2732,10 @@
         <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2156,10 +2743,10 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -2167,10 +2754,10 @@
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2178,10 +2765,10 @@
         <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -2189,10 +2776,10 @@
         <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -2200,10 +2787,10 @@
         <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2211,10 +2798,10 @@
         <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -2222,10 +2809,10 @@
         <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -2233,10 +2820,10 @@
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -2244,10 +2831,10 @@
         <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -2255,10 +2842,10 @@
         <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -2266,10 +2853,10 @@
         <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -2277,10 +2864,10 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2288,10 +2875,10 @@
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -2299,10 +2886,10 @@
         <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2310,10 +2897,10 @@
         <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -2321,10 +2908,10 @@
         <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -2332,10 +2919,10 @@
         <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2343,10 +2930,10 @@
         <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -2354,10 +2941,10 @@
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -2365,10 +2952,10 @@
         <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -2376,10 +2963,10 @@
         <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -2387,10 +2974,10 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -2398,10 +2985,10 @@
         <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -2409,10 +2996,10 @@
         <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -2420,10 +3007,10 @@
         <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -2431,10 +3018,10 @@
         <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -2442,10 +3029,10 @@
         <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -2453,10 +3040,10 @@
         <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -2464,10 +3051,10 @@
         <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -2475,10 +3062,10 @@
         <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>146</v>
       </c>
@@ -2486,40 +3073,40 @@
         <v>145</v>
       </c>
       <c r="C57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
+      <c r="C59" t="s">
         <v>215</v>
       </c>
-      <c r="B58" s="9" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C58" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C60" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18AD22B-9288-4C94-A977-39420BB8AA4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8200556A-F24A-47EE-83CE-1411DF3D2AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="244">
   <si>
     <t>comments</t>
   </si>
@@ -721,9 +721,6 @@
     <t>Você tem certeza que quere sair e perder todas as alterações?</t>
   </si>
   <si>
-    <t>AQSP</t>
-  </si>
-  <si>
     <t>inclusao</t>
   </si>
   <si>
@@ -745,9 +742,6 @@
     <t>seguimento</t>
   </si>
   <si>
-    <t>Avaliação da eficáccia de AQSP</t>
-  </si>
-  <si>
     <t>Formulário de inclusão de caso: Dia 0</t>
   </si>
   <si>
@@ -772,12 +766,6 @@
     <t>Rastreio de caso</t>
   </si>
   <si>
-    <t>'?' + odkSurvey.getHashString('AQSP')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('AQSP','inclusao')</t>
-  </si>
-  <si>
     <t>'?' + odkSurvey.getHashString('laboratorio')</t>
   </si>
   <si>
@@ -796,82 +784,13 @@
     <t>'?' + odkSurvey.getHashString('rastreio')</t>
   </si>
   <si>
-    <t>dia01</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('seguimento','dia01')</t>
-  </si>
-  <si>
-    <t>dia02</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('seguimento','dia02')</t>
-  </si>
-  <si>
-    <t>Formulário de seguimento de caso: dia 01</t>
-  </si>
-  <si>
-    <t>Formulário de seguimento de caso: dia 02</t>
-  </si>
-  <si>
-    <t>Formulário de seguimento de caso: dia 03</t>
-  </si>
-  <si>
-    <t>Formulário de seguimento de caso: dia 07</t>
-  </si>
-  <si>
-    <t>Formulário de seguimento de caso: dia 14</t>
-  </si>
-  <si>
-    <t>Formulário de seguimento de caso: dia 21</t>
-  </si>
-  <si>
-    <t>Formulário de seguimento de caso: dia 28</t>
-  </si>
-  <si>
-    <t>dia03</t>
-  </si>
-  <si>
-    <t>dia07</t>
-  </si>
-  <si>
-    <t>dia14</t>
-  </si>
-  <si>
-    <t>dia21</t>
-  </si>
-  <si>
-    <t>dia28</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('seguimento','dia07')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('seguimento','dia03')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('seguimento','dia14')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('seguimento','dia28')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('seguimento','dia21')</t>
-  </si>
-  <si>
-    <t>outroDia</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('seguimento','outroDia')</t>
-  </si>
-  <si>
-    <t>Formulário de seguimento de caso: Qualquer outro dia</t>
-  </si>
-  <si>
     <t>'?' + odkSurvey.getHashString('seguimento')</t>
   </si>
   <si>
     <t>Seguimento</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('inclusao')</t>
   </si>
 </sst>
 </file>
@@ -1485,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1576,91 +1495,91 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" t="s">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" t="s">
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="8" t="s">
-        <v>240</v>
+      <c r="B21" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1676,28 +1595,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" t="s">
         <v>28</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" t="s">
+    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1710,7 +1629,7 @@
     <row r="28" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
@@ -1735,7 +1654,7 @@
     <row r="31" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
@@ -1751,253 +1670,28 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" t="s">
         <v>28</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>245</v>
-      </c>
+      <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E44" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="E47" t="s">
-        <v>28</v>
-      </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E51" t="s">
-        <v>28</v>
-      </c>
-      <c r="G51" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="E58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E65" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" t="s">
+      <c r="C36" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2211,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A19"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2240,10 +1934,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2251,21 +1945,21 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>232</v>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2273,10 +1967,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -2284,10 +1978,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2295,10 +1989,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2306,131 +2000,21 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B9" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>260</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C19" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8200556A-F24A-47EE-83CE-1411DF3D2AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F805EC-066B-4223-A9A2-366179757ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="27360" windowHeight="19080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="choices" sheetId="6" r:id="rId4"/>
     <sheet name="framework_translations" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="247">
   <si>
     <t>comments</t>
   </si>
@@ -791,6 +791,15 @@
   </si>
   <si>
     <t>'?' + odkSurvey.getHashString('inclusao')</t>
+  </si>
+  <si>
+    <t>resultado_tdr</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('rastreio','resultado_tdr')</t>
+  </si>
+  <si>
+    <t>Introducao do resultado de TDR</t>
   </si>
 </sst>
 </file>
@@ -1404,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD59"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1692,6 +1701,31 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1905,10 +1939,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2015,6 +2049,17 @@
       </c>
       <c r="C9" s="9" t="s">
         <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F805EC-066B-4223-A9A2-366179757ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171B1075-9758-4693-9237-BEBFDBA335BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="27360" windowHeight="19080" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="5460" windowWidth="13680" windowHeight="9540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="250">
   <si>
     <t>comments</t>
   </si>
@@ -800,6 +800,15 @@
   </si>
   <si>
     <t>Introducao do resultado de TDR</t>
+  </si>
+  <si>
+    <t>outroDia</t>
+  </si>
+  <si>
+    <t>Seguimento de qualquer outro Dia</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('outroDia')</t>
   </si>
 </sst>
 </file>
@@ -1382,13 +1391,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1413,24 +1422,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="101.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="101.1328125" customWidth="1"/>
+    <col min="3" max="3" width="22.1328125" customWidth="1"/>
+    <col min="4" max="4" width="46.1328125" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" customWidth="1"/>
+    <col min="8" max="8" width="31.3984375" customWidth="1"/>
+    <col min="9" max="9" width="22.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1457,7 +1466,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>17</v>
       </c>
@@ -1466,7 +1475,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -1477,13 +1486,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -1494,23 +1503,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
         <v>243</v>
@@ -1522,20 +1531,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>235</v>
@@ -1547,20 +1556,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="8" t="s">
         <v>236</v>
@@ -1572,20 +1581,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>237</v>
@@ -1597,20 +1606,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>238</v>
@@ -1622,20 +1631,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>239</v>
@@ -1647,20 +1656,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
         <v>240</v>
@@ -1672,20 +1681,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>241</v>
@@ -1697,20 +1706,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>245</v>
@@ -1722,10 +1731,35 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1748,13 +1782,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="3" max="6" width="24.73046875" customWidth="1"/>
+    <col min="7" max="7" width="41.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1780,7 +1814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1792,7 +1826,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1807,7 +1841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1818,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1835,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -1846,7 +1880,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -1857,7 +1891,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>147</v>
       </c>
@@ -1869,7 +1903,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1877,13 +1911,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1891,7 +1925,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1899,13 +1933,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1913,7 +1947,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1921,10 +1955,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -1939,20 +1973,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="63.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="26.1328125" customWidth="1"/>
+    <col min="3" max="3" width="63.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1963,7 +1997,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1974,7 +2008,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1985,7 +2019,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1996,7 +2030,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -2007,7 +2041,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -2018,7 +2052,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2029,7 +2063,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -2040,7 +2074,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2051,7 +2085,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2060,6 +2094,17 @@
       </c>
       <c r="C10" s="3" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2082,14 +2127,14 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.73046875" customWidth="1"/>
+    <col min="2" max="2" width="73.265625" customWidth="1"/>
+    <col min="3" max="3" width="53.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2100,7 +2145,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2111,7 +2156,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -2122,7 +2167,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2133,7 +2178,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2144,7 +2189,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -2155,7 +2200,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2166,7 +2211,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2177,7 +2222,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2188,7 +2233,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -2199,7 +2244,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -2210,7 +2255,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2221,7 +2266,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2232,7 +2277,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2243,7 +2288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2254,7 +2299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2265,7 +2310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2276,7 +2321,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2287,7 +2332,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2298,7 +2343,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2309,7 +2354,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2320,7 +2365,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2331,7 +2376,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -2342,7 +2387,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2353,7 +2398,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2364,7 +2409,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2375,7 +2420,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -2386,7 +2431,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2397,7 +2442,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -2408,7 +2453,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -2419,7 +2464,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2430,7 +2475,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -2441,7 +2486,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -2452,7 +2497,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -2463,7 +2508,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -2474,7 +2519,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -2485,7 +2530,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -2496,7 +2541,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2507,7 +2552,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -2518,7 +2563,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2529,7 +2574,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -2540,7 +2585,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -2551,7 +2596,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2562,7 +2607,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -2573,7 +2618,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -2584,7 +2629,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -2595,7 +2640,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -2606,7 +2651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -2617,7 +2662,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -2628,7 +2673,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -2639,7 +2684,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -2650,7 +2695,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -2661,7 +2706,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -2672,7 +2717,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -2683,7 +2728,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -2694,7 +2739,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>146</v>
       </c>
@@ -2705,7 +2750,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>211</v>
       </c>
@@ -2716,7 +2761,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>213</v>
       </c>
@@ -2727,7 +2772,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>216</v>
       </c>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171B1075-9758-4693-9237-BEBFDBA335BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B12F6C-9F41-4FF6-84DA-45F3DED2C18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="5460" windowWidth="13680" windowHeight="9540" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -793,15 +793,6 @@
     <t>'?' + odkSurvey.getHashString('inclusao')</t>
   </si>
   <si>
-    <t>resultado_tdr</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('rastreio','resultado_tdr')</t>
-  </si>
-  <si>
-    <t>Introducao do resultado de TDR</t>
-  </si>
-  <si>
     <t>outroDia</t>
   </si>
   <si>
@@ -809,6 +800,15 @@
   </si>
   <si>
     <t>'?' + odkSurvey.getHashString('outroDia')</t>
+  </si>
+  <si>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('cap')</t>
+  </si>
+  <si>
+    <t>CAP sobre Avaliação da Quimioprofilaxia sazonal para prevenção do Paludismo</t>
   </si>
 </sst>
 </file>
@@ -1391,13 +1391,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1424,22 +1424,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="101.1328125" customWidth="1"/>
-    <col min="3" max="3" width="22.1328125" customWidth="1"/>
-    <col min="4" max="4" width="46.1328125" customWidth="1"/>
+    <col min="2" max="2" width="101.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1"/>
-    <col min="8" max="8" width="31.3984375" customWidth="1"/>
-    <col min="9" max="9" width="22.1328125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>17</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -1486,13 +1486,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -1503,23 +1503,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
         <v>243</v>
@@ -1531,20 +1531,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>235</v>
@@ -1556,20 +1556,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>229</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="8" t="s">
         <v>236</v>
@@ -1581,20 +1581,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>237</v>
@@ -1606,20 +1606,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>238</v>
@@ -1631,20 +1631,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>239</v>
@@ -1656,20 +1656,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
         <v>240</v>
@@ -1681,20 +1681,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>241</v>
@@ -1706,23 +1706,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
@@ -1731,23 +1731,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
@@ -1756,7 +1756,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" t="s">
@@ -1782,13 +1782,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="24.73046875" customWidth="1"/>
-    <col min="7" max="7" width="41.1328125" customWidth="1"/>
+    <col min="3" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1826,7 +1826,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>160</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>147</v>
       </c>
@@ -1903,7 +1903,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1911,13 +1911,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1925,7 +1925,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1933,13 +1933,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1947,7 +1947,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1955,10 +1955,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -1975,18 +1975,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="26.1328125" customWidth="1"/>
-    <col min="3" max="3" width="63.86328125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2085,26 +2085,26 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -2127,14 +2127,14 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.73046875" customWidth="1"/>
-    <col min="2" max="2" width="73.265625" customWidth="1"/>
-    <col min="3" max="3" width="53.73046875" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>146</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>211</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>213</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>216</v>
       </c>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\assets\framework\forms\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B12F6C-9F41-4FF6-84DA-45F3DED2C18D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C02161-55C2-4891-AF28-389AF0723C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="249">
   <si>
     <t>comments</t>
   </si>
@@ -727,9 +727,6 @@
     <t>laboratorio</t>
   </si>
   <si>
-    <t>medicacao_previa</t>
-  </si>
-  <si>
     <t>medicamento_administrado</t>
   </si>
   <si>
@@ -754,9 +751,6 @@
     <t>Resultados de laboratorio</t>
   </si>
   <si>
-    <t>Medicação prévia</t>
-  </si>
-  <si>
     <t>Outros Medicamentos Administrados (antipalúdicos, antibióticos ou analgésicos)</t>
   </si>
   <si>
@@ -772,9 +766,6 @@
     <t>'?' + odkSurvey.getHashString('evento_adverso')</t>
   </si>
   <si>
-    <t>'?' + odkSurvey.getHashString('medicacao_previa')</t>
-  </si>
-  <si>
     <t>'?' + odkSurvey.getHashString('medicamento_administrado')</t>
   </si>
   <si>
@@ -809,6 +800,12 @@
   </si>
   <si>
     <t>CAP sobre Avaliação da Quimioprofilaxia sazonal para prevenção do Paludismo</t>
+  </si>
+  <si>
+    <t>codigos</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('codigos')</t>
   </si>
 </sst>
 </file>
@@ -1424,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1522,7 +1519,7 @@
     <row r="10" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -1547,7 +1544,7 @@
     <row r="14" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -1565,14 +1562,14 @@
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -1590,14 +1587,14 @@
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1615,14 +1612,14 @@
     </row>
     <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
@@ -1640,14 +1637,14 @@
     </row>
     <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
@@ -1665,14 +1662,14 @@
     </row>
     <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
         <v>28</v>
@@ -1690,14 +1687,14 @@
     </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s">
         <v>28</v>
@@ -1715,14 +1712,14 @@
     </row>
     <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
@@ -1740,14 +1737,14 @@
     </row>
     <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E42" t="s">
         <v>28</v>
@@ -1975,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2002,10 +1999,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2016,7 +2013,7 @@
         <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2024,10 +2021,10 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2035,10 +2032,10 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -2046,10 +2043,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2057,10 +2054,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2068,10 +2065,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2082,7 +2079,7 @@
         <v>221</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2090,10 +2087,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2101,10 +2098,10 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C02161-55C2-4891-AF28-389AF0723C16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C1DC46-BCDB-4ACB-A1A0-48D18A2A91A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="240">
   <si>
     <t>comments</t>
   </si>
@@ -727,12 +727,6 @@
     <t>laboratorio</t>
   </si>
   <si>
-    <t>medicamento_administrado</t>
-  </si>
-  <si>
-    <t>medicamento_suspeito</t>
-  </si>
-  <si>
     <t>rastreio</t>
   </si>
   <si>
@@ -751,12 +745,6 @@
     <t>Resultados de laboratorio</t>
   </si>
   <si>
-    <t>Outros Medicamentos Administrados (antipalúdicos, antibióticos ou analgésicos)</t>
-  </si>
-  <si>
-    <t>Medicamento suspeito</t>
-  </si>
-  <si>
     <t>Rastreio de caso</t>
   </si>
   <si>
@@ -766,12 +754,6 @@
     <t>'?' + odkSurvey.getHashString('evento_adverso')</t>
   </si>
   <si>
-    <t>'?' + odkSurvey.getHashString('medicamento_administrado')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('medicamento_suspeito')</t>
-  </si>
-  <si>
     <t>'?' + odkSurvey.getHashString('rastreio')</t>
   </si>
   <si>
@@ -791,15 +773,6 @@
   </si>
   <si>
     <t>'?' + odkSurvey.getHashString('outroDia')</t>
-  </si>
-  <si>
-    <t>cap</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('cap')</t>
-  </si>
-  <si>
-    <t>CAP sobre Avaliação da Quimioprofilaxia sazonal para prevenção do Paludismo</t>
   </si>
   <si>
     <t>codigos</t>
@@ -1384,7 +1357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1419,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1519,7 +1492,7 @@
     <row r="10" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -1544,7 +1517,7 @@
     <row r="14" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
@@ -1562,14 +1535,14 @@
     </row>
     <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="8" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -1587,14 +1560,14 @@
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1619,7 +1592,7 @@
     <row r="25" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
@@ -1635,128 +1608,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" t="s">
         <v>28</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" t="s">
+    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>28</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" t="s">
+      <c r="C34" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1775,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1843,7 +1741,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2020061901</v>
+        <v>2020071900</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1970,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1999,10 +1897,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2013,7 +1911,7 @@
         <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2021,10 +1919,10 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2032,32 +1930,32 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" t="s">
-        <v>231</v>
+      <c r="B7" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2065,43 +1963,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\celsoapp\app\config\assets\framework\forms\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E96D2C1-28A4-4F3D-BC23-0BB049EE1CB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E8F39-B9E3-4D3B-8D50-E8D3E56EDD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="231">
   <si>
     <t>comments</t>
   </si>
@@ -742,13 +742,10 @@
     <t>Rondas</t>
   </si>
   <si>
-    <t>dados_adicional</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('QPS','dados_adicional')</t>
-  </si>
-  <si>
-    <t>Dados adicionais</t>
+    <t>codigos</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('codigos')</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1504,15 +1501,15 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>229</v>
+      <c r="A16" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
-        <v>230</v>
+      <c r="B17" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1530,14 +1527,14 @@
     </row>
     <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1553,20 +1550,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1781,7 +1767,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1839,11 +1825,11 @@
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>231</v>
+      <c r="C5" s="9" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\assets\framework\forms\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E8F39-B9E3-4D3B-8D50-E8D3E56EDD6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C1DC46-BCDB-4ACB-A1A0-48D18A2A91A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -19,8 +19,14 @@
     <sheet name="choices" sheetId="6" r:id="rId4"/>
     <sheet name="framework_translations" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="240">
   <si>
     <t>comments</t>
   </si>
@@ -502,18 +508,6 @@
     <t>en</t>
   </si>
   <si>
-    <t>QPS</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('QPS')</t>
-  </si>
-  <si>
-    <t>inscricao</t>
-  </si>
-  <si>
-    <t>Quimioprevenção do Paludismo Sazonal</t>
-  </si>
-  <si>
     <t>Escolha o formulário</t>
   </si>
   <si>
@@ -727,19 +721,58 @@
     <t>Você tem certeza que quere sair e perder todas as alterações?</t>
   </si>
   <si>
-    <t xml:space="preserve">Inscricao </t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('QPS','inscricao')</t>
-  </si>
-  <si>
-    <t>ronda</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('ronda')</t>
-  </si>
-  <si>
-    <t>Rondas</t>
+    <t>inclusao</t>
+  </si>
+  <si>
+    <t>laboratorio</t>
+  </si>
+  <si>
+    <t>rastreio</t>
+  </si>
+  <si>
+    <t>seguimento</t>
+  </si>
+  <si>
+    <t>Formulário de inclusão de caso: Dia 0</t>
+  </si>
+  <si>
+    <t>Formulário de reportagem de evento adverso</t>
+  </si>
+  <si>
+    <t>evento_adverso</t>
+  </si>
+  <si>
+    <t>Resultados de laboratorio</t>
+  </si>
+  <si>
+    <t>Rastreio de caso</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('laboratorio')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('evento_adverso')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('rastreio')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('seguimento')</t>
+  </si>
+  <si>
+    <t>Seguimento</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('inclusao')</t>
+  </si>
+  <si>
+    <t>outroDia</t>
+  </si>
+  <si>
+    <t>Seguimento de qualquer outro Dia</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('outroDia')</t>
   </si>
   <si>
     <t>codigos</t>
@@ -1324,17 +1357,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1359,24 +1392,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="101.1328125" customWidth="1"/>
-    <col min="3" max="3" width="22.1328125" customWidth="1"/>
-    <col min="4" max="4" width="46.1328125" customWidth="1"/>
+    <col min="2" max="2" width="101.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1"/>
-    <col min="8" max="8" width="31.3984375" customWidth="1"/>
-    <col min="9" max="9" width="22.1328125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1403,7 +1436,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>17</v>
       </c>
@@ -1412,7 +1445,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -1420,16 +1453,16 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -1440,101 +1473,101 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" t="s">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E13" t="s">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" t="s">
         <v>28</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" t="s">
+    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" t="s">
         <v>28</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" t="s">
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>229</v>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="8" t="s">
-        <v>230</v>
+      <c r="B21" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1543,16 +1576,87 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1569,17 +1673,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="24.73046875" customWidth="1"/>
-    <col min="7" max="7" width="41.1328125" customWidth="1"/>
+    <col min="3" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1590,13 +1694,13 @@
         <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E1" t="s">
         <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1605,7 +1709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1617,7 +1721,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1632,18 +1736,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2019082600</v>
+        <v>2020071900</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1651,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1660,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -1668,21 +1772,21 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>147</v>
       </c>
@@ -1694,7 +1798,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1702,13 +1806,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1716,7 +1820,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1724,13 +1828,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1738,7 +1842,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1746,10 +1850,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -1764,20 +1868,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="22.1328125" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1788,48 +1892,81 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>220</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>229</v>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -1848,18 +1985,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.73046875" customWidth="1"/>
-    <col min="2" max="2" width="73.265625" customWidth="1"/>
-    <col min="3" max="3" width="53.73046875" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1867,10 +2004,10 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1878,10 +2015,10 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1889,10 +2026,10 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1900,10 +2037,10 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1911,10 +2048,10 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1922,10 +2059,10 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1933,10 +2070,10 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1944,10 +2081,10 @@
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1955,10 +2092,10 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1966,10 +2103,10 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -1977,10 +2114,10 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1988,10 +2125,10 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1999,10 +2136,10 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2013,7 +2150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -2024,7 +2161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2035,7 +2172,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2043,10 +2180,10 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2054,10 +2191,10 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2065,10 +2202,10 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2076,10 +2213,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2087,10 +2224,10 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2098,10 +2235,10 @@
         <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -2109,10 +2246,10 @@
         <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2120,10 +2257,10 @@
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2131,10 +2268,10 @@
         <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2142,10 +2279,10 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -2153,10 +2290,10 @@
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2164,10 +2301,10 @@
         <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -2175,10 +2312,10 @@
         <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -2186,10 +2323,10 @@
         <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2197,10 +2334,10 @@
         <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -2208,10 +2345,10 @@
         <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -2219,10 +2356,10 @@
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -2230,10 +2367,10 @@
         <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -2241,10 +2378,10 @@
         <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -2252,10 +2389,10 @@
         <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -2263,10 +2400,10 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2274,10 +2411,10 @@
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -2285,10 +2422,10 @@
         <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2296,10 +2433,10 @@
         <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -2307,10 +2444,10 @@
         <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -2318,10 +2455,10 @@
         <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2329,10 +2466,10 @@
         <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -2340,10 +2477,10 @@
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -2351,10 +2488,10 @@
         <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -2362,10 +2499,10 @@
         <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -2373,10 +2510,10 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -2384,10 +2521,10 @@
         <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -2395,10 +2532,10 @@
         <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -2406,10 +2543,10 @@
         <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -2417,10 +2554,10 @@
         <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -2428,10 +2565,10 @@
         <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -2439,10 +2576,10 @@
         <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -2450,10 +2587,10 @@
         <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -2461,10 +2598,10 @@
         <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>146</v>
       </c>
@@ -2472,40 +2609,40 @@
         <v>145</v>
       </c>
       <c r="C57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
+      <c r="C59" t="s">
         <v>215</v>
       </c>
-      <c r="B58" s="9" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C58" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C60" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\assets\framework\forms\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C1DC46-BCDB-4ACB-A1A0-48D18A2A91A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B05113-5447-40BD-8F6D-FBC1B223E5CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -19,14 +19,8 @@
     <sheet name="choices" sheetId="6" r:id="rId4"/>
     <sheet name="framework_translations" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="229">
   <si>
     <t>comments</t>
   </si>
@@ -508,6 +502,18 @@
     <t>en</t>
   </si>
   <si>
+    <t>QPS</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('QPS')</t>
+  </si>
+  <si>
+    <t>inscricao</t>
+  </si>
+  <si>
+    <t>Quimioprevenção do Paludismo Sazonal</t>
+  </si>
+  <si>
     <t>Escolha o formulário</t>
   </si>
   <si>
@@ -721,64 +727,19 @@
     <t>Você tem certeza que quere sair e perder todas as alterações?</t>
   </si>
   <si>
-    <t>inclusao</t>
-  </si>
-  <si>
-    <t>laboratorio</t>
-  </si>
-  <si>
-    <t>rastreio</t>
-  </si>
-  <si>
-    <t>seguimento</t>
-  </si>
-  <si>
-    <t>Formulário de inclusão de caso: Dia 0</t>
-  </si>
-  <si>
-    <t>Formulário de reportagem de evento adverso</t>
-  </si>
-  <si>
-    <t>evento_adverso</t>
-  </si>
-  <si>
-    <t>Resultados de laboratorio</t>
-  </si>
-  <si>
-    <t>Rastreio de caso</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('laboratorio')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('evento_adverso')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('rastreio')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('seguimento')</t>
-  </si>
-  <si>
-    <t>Seguimento</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('inclusao')</t>
-  </si>
-  <si>
-    <t>outroDia</t>
-  </si>
-  <si>
-    <t>Seguimento de qualquer outro Dia</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('outroDia')</t>
-  </si>
-  <si>
-    <t>codigos</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('codigos')</t>
+    <t xml:space="preserve">Inscricao </t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('QPS','inscricao')</t>
+  </si>
+  <si>
+    <t>ronda</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('ronda')</t>
+  </si>
+  <si>
+    <t>Rondas</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1392,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1453,7 +1414,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1483,180 +1444,95 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" t="s">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" t="s">
         <v>28</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" t="s">
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1673,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1694,13 +1570,13 @@
         <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
         <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -1741,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2020071900</v>
+        <v>2019082600</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1755,7 +1631,7 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1772,18 +1648,18 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -1868,17 +1744,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="63.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1897,10 +1773,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1908,65 +1784,21 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B4" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>236</v>
+      <c r="C4" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1985,7 +1817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
@@ -2004,7 +1836,7 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2015,7 +1847,7 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2026,7 +1858,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2037,7 +1869,7 @@
         <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2048,7 +1880,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2059,7 +1891,7 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2070,7 +1902,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2081,7 +1913,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2092,7 +1924,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2103,7 +1935,7 @@
         <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2114,7 +1946,7 @@
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -2125,7 +1957,7 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2136,7 +1968,7 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2180,7 +2012,7 @@
         <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2191,7 +2023,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2202,7 +2034,7 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2213,7 +2045,7 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2224,7 +2056,7 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2235,7 +2067,7 @@
         <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2246,7 +2078,7 @@
         <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2257,7 +2089,7 @@
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2268,7 +2100,7 @@
         <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2279,7 +2111,7 @@
         <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2290,7 +2122,7 @@
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2301,7 +2133,7 @@
         <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -2312,7 +2144,7 @@
         <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2323,7 +2155,7 @@
         <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2334,7 +2166,7 @@
         <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2345,7 +2177,7 @@
         <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2356,7 +2188,7 @@
         <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2367,7 +2199,7 @@
         <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
@@ -2378,7 +2210,7 @@
         <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2389,7 +2221,7 @@
         <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2400,7 +2232,7 @@
         <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2411,7 +2243,7 @@
         <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2422,7 +2254,7 @@
         <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2433,7 +2265,7 @@
         <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2444,7 +2276,7 @@
         <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2455,7 +2287,7 @@
         <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2466,7 +2298,7 @@
         <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2477,7 +2309,7 @@
         <v>37</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2488,7 +2320,7 @@
         <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2499,7 +2331,7 @@
         <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2510,7 +2342,7 @@
         <v>129</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2521,7 +2353,7 @@
         <v>131</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,7 +2364,7 @@
         <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2543,7 +2375,7 @@
         <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2554,7 +2386,7 @@
         <v>97</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2565,7 +2397,7 @@
         <v>135</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2576,7 +2408,7 @@
         <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2587,7 +2419,7 @@
         <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2598,7 +2430,7 @@
         <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2609,40 +2441,40 @@
         <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C60" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B05113-5447-40BD-8F6D-FBC1B223E5CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BAAB47-1A50-4CE7-BAD2-F21A0188D96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -1322,13 +1322,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.86328125" customWidth="1"/>
+    <col min="2" max="2" width="20.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1355,22 +1355,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="101.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="101.1328125" customWidth="1"/>
+    <col min="3" max="3" width="22.1328125" customWidth="1"/>
+    <col min="4" max="4" width="46.1328125" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.86328125" customWidth="1"/>
+    <col min="8" max="8" width="31.3984375" customWidth="1"/>
+    <col min="9" max="9" width="22.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>17</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -1417,13 +1417,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -1434,23 +1434,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>154</v>
@@ -1462,20 +1462,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>225</v>
@@ -1487,20 +1487,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
         <v>227</v>
@@ -1512,25 +1512,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
@@ -1549,17 +1549,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="6" width="24.7109375" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="3" max="6" width="24.73046875" customWidth="1"/>
+    <col min="7" max="7" width="41.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1612,18 +1612,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2019082600</v>
+        <v>2020092600</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>147</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1682,13 +1682,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1696,7 +1696,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1704,13 +1704,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1718,7 +1718,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1726,10 +1726,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -1750,14 +1750,14 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1821,14 +1821,14 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.73046875" customWidth="1"/>
+    <col min="2" max="2" width="73.265625" customWidth="1"/>
+    <col min="3" max="3" width="53.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>146</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>215</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>217</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>220</v>
       </c>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\QPS2020\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BAAB47-1A50-4CE7-BAD2-F21A0188D96E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B05113-5447-40BD-8F6D-FBC1B223E5CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -1322,13 +1322,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" customWidth="1"/>
-    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1355,22 +1355,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="101.1328125" customWidth="1"/>
-    <col min="3" max="3" width="22.1328125" customWidth="1"/>
-    <col min="4" max="4" width="46.1328125" customWidth="1"/>
+    <col min="2" max="2" width="101.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.86328125" customWidth="1"/>
-    <col min="8" max="8" width="31.3984375" customWidth="1"/>
-    <col min="9" max="9" width="22.1328125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>17</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -1417,13 +1417,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -1434,23 +1434,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>154</v>
@@ -1462,20 +1462,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>225</v>
@@ -1487,20 +1487,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>226</v>
       </c>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
         <v>227</v>
@@ -1512,25 +1512,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
@@ -1549,17 +1549,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="24.73046875" customWidth="1"/>
-    <col min="7" max="7" width="41.1328125" customWidth="1"/>
+    <col min="3" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1612,18 +1612,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2020092600</v>
+        <v>2019082600</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>147</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1682,13 +1682,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1696,7 +1696,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1704,13 +1704,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1718,7 +1718,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1726,10 +1726,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -1750,14 +1750,14 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="22.1328125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -1821,14 +1821,14 @@
       <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.73046875" customWidth="1"/>
-    <col min="2" max="2" width="73.265625" customWidth="1"/>
-    <col min="3" max="3" width="53.73046875" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>87</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>102</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>111</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>117</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>119</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>123</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>128</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>132</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>137</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>138</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>139</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>140</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>143</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>146</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>215</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>217</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>220</v>
       </c>
